--- a/data/trans_camb/IP1014-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1014-Edad-trans_camb.xlsx
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,95</t>
+          <t>-1,33; 0,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,71</t>
+          <t>-1,77; 0,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 1,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,09</t>
+          <t>-0,81; 0,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,36</t>
+          <t>-1,26; 0,09</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>316,94%</t>
+          <t>-12,63%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>-60,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>317,64%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>-73,34%</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,07; 598,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,85</t>
+          <t>-0,17; 1,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,25</t>
+          <t>-0,46; 0,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,84</t>
+          <t>-0,01; 1,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,09</t>
+          <t>-0,24; 0,36</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-12,63%</t>
+          <t>316,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-60,94%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>317,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-73,34%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-95,07; 598,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">

--- a/data/trans_camb/IP1014-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1014-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,31</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,71</t>
+          <t>-3,63; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,71</t>
+          <t>-3,1; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,37</t>
+          <t>-1,55; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 0,37</t>
+          <t>-1,55; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,12 +677,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-45,94%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-45,68%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-46,02%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-45,74%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,85</t>
+          <t>-1,08; 1,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,25</t>
+          <t>-1,33; 0,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 1,45</t>
+          <t>-0,43; 1,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,0</t>
+          <t>-1,27; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,84</t>
+          <t>-0,52; 0,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,09</t>
+          <t>-0,81; 0,31</t>
         </is>
       </c>
     </row>
@@ -833,17 +833,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,63%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-60,94%</t>
+          <t>-48,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>125,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -853,12 +853,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-73,34%</t>
+          <t>-61,61%</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-95,07; 598,05</t>
+          <t>-86,6; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,12 +913,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -933,12 +933,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,09</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 1,95</t>
+          <t>-1,02; 1,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,71</t>
+          <t>-1,43; 1,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,09</t>
+          <t>-0,75; 1,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,36</t>
+          <t>-0,76; 0,67</t>
         </is>
       </c>
     </row>
@@ -989,12 +989,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>316,94%</t>
+          <t>79,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>41,51%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1009,12 +1009,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>317,64%</t>
+          <t>72,22%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>34,41%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-0,16</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,74</t>
+          <t>-0,31; 2,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,28</t>
+          <t>-1,7; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 0,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 0,46</t>
+          <t>-0,16; 1,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,09</t>
+          <t>-0,75; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>239,46%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-43,06%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>100,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>235,87%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>43,95%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-52,18%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,48; 393,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1203,23 +1203,187 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-55,95; 341,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 105,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 0,81</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 0,27</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 0,51</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 0,0</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 0,5</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 0,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>33,32%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-43,06%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>100,93%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>43,95%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-52,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-68,09; 386,86</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-58,0; 394,02</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 193,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP1014-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1014-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,0</t>
+          <t>-2,91; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 0,0</t>
+          <t>-2,91; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,0</t>
+          <t>-1,68; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,12</t>
+          <t>-0,84; 1,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,56</t>
+          <t>-1,1; 0,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 1,53</t>
+          <t>-0,5; 1,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,0</t>
+          <t>-1,44; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,99</t>
+          <t>-0,46; 0,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 0,31</t>
+          <t>-0,8; 0,29</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-86,6; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -951,12 +951,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,75</t>
+          <t>-1,0; 1,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,38</t>
+          <t>-1,23; 1,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,07</t>
+          <t>-0,55; 0,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,67</t>
+          <t>-0,75; 0,68</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 2,2</t>
+          <t>-0,27; 2,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 0,0</t>
+          <t>-1,57; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,29</t>
+          <t>-0,16; 1,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,0</t>
+          <t>-0,8; 0,0</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,81</t>
+          <t>-0,4; 0,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,27</t>
+          <t>-0,75; 0,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 0,51</t>
+          <t>-0,19; 0,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,0</t>
+          <t>-0,52; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,5</t>
+          <t>-0,24; 0,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,09</t>
+          <t>-0,44; 0,09</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-68,09; 386,86</t>
+          <t>-64,48; 463,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 280,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-58,0; 394,02</t>
+          <t>-59,61; 375,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 193,59</t>
+          <t>-100,0; 135,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP1014-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP1014-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-0,58</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>-0,58</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,0</t>
+          <t>-1,56; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,0</t>
+          <t>-1,56; 0,0</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>-0,26</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,09</t>
+          <t>-0,39; 1,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,56</t>
+          <t>-1,03; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,53</t>
+          <t>-1,09; 1,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 0,0</t>
+          <t>-1,1; 0,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,94</t>
+          <t>-0,51; 0,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,29</t>
+          <t>-0,79; 0,31</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>125,24%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,1%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>-48,81%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>125,24%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,38</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,2</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 1,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 1,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,19; 1,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,88</t>
+          <t>-0,75; 0,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,68</t>
+          <t>-0,69; 0,73</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>79,03%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>41,51%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>-0,31</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,27 +1107,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 2,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 0,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,59</t>
+          <t>-0,14; 1,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>239,46%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,16</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>-0,2</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 0,85</t>
+          <t>-0,16; 0,53</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 0,26</t>
+          <t>-0,47; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 0,49</t>
+          <t>-0,47; 0,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,0</t>
+          <t>-0,75; 0,28</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,49</t>
+          <t>-0,26; 0,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 0,09</t>
+          <t>-0,48; 0,09</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>100,93%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>33,32%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>-43,06%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>100,93%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-64,48; 463,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 280,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,48; 393,76</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1359,12 +1359,12 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,61; 375,23</t>
+          <t>-55,95; 341,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 135,36</t>
+          <t>-100,0; 105,91</t>
         </is>
       </c>
     </row>
